--- a/user_details.xlsx
+++ b/user_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\us_visa_scheduler-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF11252C-C5E7-48B5-84E3-B56F1F04856D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7986B6FA-0600-4EB6-8ED2-0E130E5F6FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>USERNAME</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>en-ca-tor</t>
+  </si>
+  <si>
+    <t>INBOX481@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>KATYALTUSHAR</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:XFD3"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,12 +467,24 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>49332385</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45199</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45199</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -604,11 +622,20 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{A2CCEB22-8794-4499-8147-9DE400FDAEA8}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{F7AF6B75-2231-4DDD-8B1F-19AB74E51B94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/user_details.xlsx
+++ b/user_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\us_visa_scheduler-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7986B6FA-0600-4EB6-8ED2-0E130E5F6FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38EAC28-B33B-4122-A165-5793512659BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,9 +420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/user_details.xlsx
+++ b/user_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\us_visa_scheduler-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38EAC28-B33B-4122-A165-5793512659BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE3DB6F-142E-4DA1-B4D3-1E284BB6BCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,11 +420,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -444,7 +446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -455,16 +457,16 @@
         <v>50125966</v>
       </c>
       <c r="D2" s="4">
-        <v>45199</v>
+        <v>45195</v>
       </c>
       <c r="E2" s="4">
-        <v>45199</v>
+        <v>45260</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -475,16 +477,16 @@
         <v>49332385</v>
       </c>
       <c r="D3" s="4">
-        <v>45199</v>
+        <v>45195</v>
       </c>
       <c r="E3" s="4">
-        <v>45199</v>
+        <v>45260</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -492,7 +494,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -500,7 +502,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -508,7 +510,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -516,7 +518,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -524,7 +526,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -532,7 +534,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -540,7 +542,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -548,7 +550,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -556,7 +558,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -564,7 +566,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -572,7 +574,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -580,7 +582,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -588,7 +590,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -596,7 +598,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -604,7 +606,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -612,7 +614,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -620,7 +622,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>

--- a/user_details.xlsx
+++ b/user_details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\us_visa_scheduler-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE3DB6F-142E-4DA1-B4D3-1E284BB6BCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B4C61D-B7B7-4CBC-86E2-1E102FF7A196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>USERNAME</t>
   </si>
@@ -42,9 +42,6 @@
     <t>PRIOD_END</t>
   </si>
   <si>
-    <t>YOUR_EMBASSY</t>
-  </si>
-  <si>
     <t>PANICKERRAHUL.101@GMAIL.COM</t>
   </si>
   <si>
@@ -58,6 +55,12 @@
   </si>
   <si>
     <t>KATYALTUSHAR</t>
+  </si>
+  <si>
+    <t>en-ca-tor,en-ca-hal</t>
+  </si>
+  <si>
+    <t>PREFERRED_EMBASSY</t>
   </si>
 </sst>
 </file>
@@ -420,13 +423,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="24" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -443,15 +449,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>50125966</v>
@@ -463,15 +469,15 @@
         <v>45260</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>49332385</v>
@@ -483,10 +489,10 @@
         <v>45260</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -494,7 +500,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -502,7 +508,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -510,7 +516,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -518,7 +524,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -526,7 +532,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -534,7 +540,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -542,7 +548,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -550,7 +556,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -558,7 +564,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -566,7 +572,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -574,7 +580,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -582,7 +588,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -590,7 +596,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -598,7 +604,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -606,7 +612,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -614,7 +620,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -622,7 +628,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>

--- a/user_details.xlsx
+++ b/user_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\us_visa_scheduler-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B4C61D-B7B7-4CBC-86E2-1E102FF7A196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876A521A-02D3-4F6A-90D8-313024163B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>USERNAME</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>PANICKER101</t>
-  </si>
-  <si>
-    <t>en-ca-tor</t>
   </si>
   <si>
     <t>INBOX481@GMAIL.COM</t>
@@ -424,15 +421,15 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -449,10 +446,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -469,15 +466,15 @@
         <v>45260</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>49332385</v>
@@ -488,11 +485,9 @@
       <c r="E3" s="4">
         <v>45260</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -500,7 +495,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -508,7 +503,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -516,7 +511,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -524,7 +519,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -532,7 +527,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -540,7 +535,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -548,7 +543,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -556,7 +551,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -564,7 +559,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -572,7 +567,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -580,7 +575,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -588,7 +583,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -596,7 +591,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -604,7 +599,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -612,7 +607,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -620,7 +615,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -628,7 +623,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
